--- a/CS105b/exc/T/W01/2159003.xlsx
+++ b/CS105b/exc/T/W01/2159003.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FCFS" sheetId="1" state="visible" r:id="rId2"/>
@@ -75,46 +75,10 @@
     <t xml:space="preserve">P3 (5)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2 – P2 (1), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">P1 (6)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">11 – P4 (3), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">P3 (5)</t>
-    </r>
+    <t xml:space="preserve">2 – P2 (1), P1 (6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 – P4 (3), P3 (5)</t>
   </si>
   <si>
     <t xml:space="preserve">14 – P3 (5)</t>
@@ -127,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -149,12 +113,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -242,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -272,15 +230,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -311,16 +261,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -545,187 +491,164 @@
       <c r="U2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2"/>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
@@ -736,11 +659,11 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
         <v>7</v>
@@ -762,11 +685,11 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
       <c r="P12" s="2" t="s">
         <v>1</v>
       </c>
@@ -778,7 +701,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -790,11 +713,11 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="P13" s="2" t="s">
         <v>2</v>
       </c>
@@ -806,7 +729,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
@@ -818,12 +741,12 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="M14" s="15"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="M14" s="13"/>
       <c r="P14" s="2" t="s">
         <v>3</v>
       </c>
@@ -847,12 +770,12 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="13"/>
       <c r="P15" s="2" t="s">
         <v>4</v>
       </c>
@@ -889,8 +812,8 @@
   </sheetPr>
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T15" activeCellId="0" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -996,7 +919,7 @@
       <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1024,187 +947,164 @@
       <c r="U2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2"/>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
@@ -1215,11 +1115,11 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
         <v>7</v>
@@ -1241,11 +1141,11 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
       <c r="P12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1257,7 +1157,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1269,11 +1169,11 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="P13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1281,11 +1181,12 @@
         <v>3</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1297,11 +1198,11 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="P14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1325,11 +1226,11 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
       <c r="P15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1339,24 +1240,24 @@
       <c r="R15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S15" s="15"/>
+      <c r="S15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H18" s="0"/>
@@ -1364,15 +1265,15 @@
       <c r="J18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="15"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K22" s="15"/>
+      <c r="K22" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1402,7 +1303,7 @@
   </sheetPr>
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -1429,7 +1330,7 @@
       <c r="G1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="n">
@@ -1509,7 +1410,7 @@
       <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1537,187 +1438,164 @@
       <c r="U2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2"/>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
@@ -1728,11 +1606,11 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2" t="s">
         <v>7</v>
@@ -1754,11 +1632,11 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
       <c r="P12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1770,7 +1648,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1782,11 +1660,11 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="P13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1798,7 +1676,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1810,11 +1688,11 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="P14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1838,11 +1716,11 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
       <c r="P15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1852,15 +1730,15 @@
       <c r="R15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="S15" s="20"/>
+      <c r="S15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="20"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H17" s="0"/>
@@ -1868,13 +1746,13 @@
       <c r="J17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N18" s="15"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
